--- a/models/dissertation-model/testes-equacoes/curva-de-preco-e-demanda.xlsx
+++ b/models/dissertation-model/testes-equacoes/curva-de-preco-e-demanda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">População</t>
   </si>
@@ -31,13 +31,16 @@
     <t xml:space="preserve">Demanda</t>
   </si>
   <si>
-    <t xml:space="preserve">População Referência</t>
+    <t xml:space="preserve">População Referência – Demanda Ref</t>
   </si>
   <si>
-    <t xml:space="preserve">Elasticidade do Preço</t>
+    <t xml:space="preserve">Inclinação da Curva de Demanda</t>
   </si>
   <si>
     <t xml:space="preserve">Preço de Referência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elasticidade da Demanda</t>
   </si>
 </sst>
 </file>
@@ -47,11 +50,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +74,18 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -198,7 +214,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -242,6 +258,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -259,22 +276,22 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,42 +303,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>603000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>602000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>601000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>599000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>598000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>597000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71086232"/>
-        <c:axId val="21785134"/>
+        <c:axId val="82660309"/>
+        <c:axId val="39729749"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71086232"/>
+        <c:axId val="82660309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -350,12 +367,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21785134"/>
+        <c:crossAx val="39729749"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21785134"/>
+        <c:axId val="39729749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +387,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -399,7 +416,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71086232"/>
+        <c:crossAx val="82660309"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -449,7 +466,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>631080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -457,8 +474,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5575320" y="143280"/>
-        <a:ext cx="5763600" cy="3920760"/>
+        <a:off x="6442560" y="143280"/>
+        <a:ext cx="5674680" cy="3920400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -479,16 +496,16 @@
   <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1000000</v>
+        <v>200</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>1</v>
@@ -510,15 +527,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <f aca="false">0.6*B2</f>
-        <v>600000</v>
+        <v>10000</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C3-$B$5)/$B$3)))</f>
-        <v>603000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,15 +542,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
+        <f aca="false">-B6*B3/B5</f>
         <v>-10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <f aca="false">C3+100</f>
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C4-$B$5)/$B$3)))</f>
-        <v>602000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,285 +558,291 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">C4+100</f>
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C5-$B$5)/$B$3)))</f>
-        <v>601000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.1</v>
+      </c>
       <c r="C6" s="0" t="n">
         <f aca="false">C5+100</f>
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C6-$B$5)/$B$3)))</f>
-        <v>600000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="n">
         <f aca="false">C6+100</f>
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C7-$B$5)/$B$3)))</f>
-        <v>599000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="n">
         <f aca="false">C7+100</f>
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C8-$B$5)/$B$3)))</f>
-        <v>598000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="n">
         <f aca="false">C8+100</f>
-        <v>700</v>
+        <v>510</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C9-$B$5)/$B$3)))</f>
-        <v>597000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="n">
         <f aca="false">C9+100</f>
-        <v>800</v>
+        <v>610</v>
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C10-$B$5)/$B$3)))</f>
-        <v>596000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
         <f aca="false">C10+100</f>
-        <v>900</v>
+        <v>710</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C11-$B$5)/$B$3)))</f>
-        <v>595000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="n">
         <f aca="false">C11+100</f>
-        <v>1000</v>
+        <v>810</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C12-$B$5)/$B$3)))</f>
-        <v>594000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="n">
         <f aca="false">C12+100</f>
-        <v>1100</v>
+        <v>910</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C13-$B$5)/$B$3)))</f>
-        <v>593000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="n">
         <f aca="false">C13+100</f>
-        <v>1200</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C14-$B$5)/$B$3)))</f>
-        <v>592000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="n">
         <f aca="false">C14+100</f>
-        <v>1300</v>
+        <v>1110</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C15-$B$5)/$B$3)))</f>
-        <v>591000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="n">
         <f aca="false">C15+100</f>
-        <v>1400</v>
+        <v>1210</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C16-$B$5)/$B$3)))</f>
-        <v>590000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="n">
         <f aca="false">C16+100</f>
-        <v>1500</v>
+        <v>1310</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C17-$B$5)/$B$3)))</f>
-        <v>589000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
         <f aca="false">C17+100</f>
-        <v>1600</v>
+        <v>1410</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C18-$B$5)/$B$3)))</f>
-        <v>588000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
         <f aca="false">C18+100</f>
-        <v>1700</v>
+        <v>1510</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C19-$B$5)/$B$3)))</f>
-        <v>587000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="n">
         <f aca="false">C19+100</f>
-        <v>1800</v>
+        <v>1610</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C20-$B$5)/$B$3)))</f>
-        <v>586000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="n">
         <f aca="false">C20+100</f>
-        <v>1900</v>
+        <v>1710</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C21-$B$5)/$B$3)))</f>
-        <v>585000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="n">
         <f aca="false">C21+100</f>
-        <v>2000</v>
+        <v>1810</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C22-$B$5)/$B$3)))</f>
-        <v>584000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="n">
         <f aca="false">C22+100</f>
-        <v>2100</v>
+        <v>1910</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C23-$B$5)/$B$3)))</f>
-        <v>583000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="n">
         <f aca="false">C23+100</f>
-        <v>2200</v>
+        <v>2010</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C24-$B$5)/$B$3)))</f>
-        <v>582000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="n">
         <f aca="false">C24+100</f>
-        <v>2300</v>
+        <v>2110</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C25-$B$5)/$B$3)))</f>
-        <v>581000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="n">
         <f aca="false">C25+100</f>
-        <v>2400</v>
+        <v>2210</v>
       </c>
       <c r="D26" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C26-$B$5)/$B$3)))</f>
-        <v>580000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="n">
         <f aca="false">C26+100</f>
-        <v>2500</v>
+        <v>2310</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C27-$B$5)/$B$3)))</f>
-        <v>579000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="n">
         <f aca="false">C27+100</f>
-        <v>2600</v>
+        <v>2410</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C28-$B$5)/$B$3)))</f>
-        <v>578000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="n">
         <f aca="false">C28+100</f>
-        <v>2700</v>
+        <v>2510</v>
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C29-$B$5)/$B$3)))</f>
-        <v>577000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="n">
         <f aca="false">C29+100</f>
-        <v>2800</v>
+        <v>2610</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C30-$B$5)/$B$3)))</f>
-        <v>576000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="n">
         <f aca="false">C30+100</f>
-        <v>2900</v>
+        <v>2710</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C31-$B$5)/$B$3)))</f>
-        <v>575000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="n">
         <f aca="false">C31+100</f>
-        <v>3000</v>
+        <v>2810</v>
       </c>
       <c r="D32" s="0" t="n">
         <f aca="false">MIN($B$2,$B$3*MAX(0,1+($B$4*(C32-$B$5)/$B$3)))</f>
-        <v>574000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
